--- a/data/trans_bre/P7A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P7A_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,03</t>
+          <t>-4,78</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,36</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-13,6</t>
+          <t>-12,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,12</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>6,13</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-25,97%</t>
+          <t>-4,34</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-17,46%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-51,2%</t>
+          <t>-25,27%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>41,22%</t>
+          <t>-12,3%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-48,74%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-9,51%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>41,3%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-22,8%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 8,55</t>
+          <t>-7,16; 8,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,23; 3,47</t>
+          <t>-12,91; 4,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,25; 5,82</t>
+          <t>-10,88; 5,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-23,86; -2,6</t>
+          <t>-22,48; -3,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 16,75</t>
+          <t>-14,14; 8,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-37,41; 68,89</t>
+          <t>-4,21; 16,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-59,22; 26,17</t>
+          <t>-14,99; 5,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-52,17; 44,47</t>
+          <t>-35,71; 73,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-71,39; -12,36</t>
+          <t>-55,95; 37,25</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-23,11; 177,38</t>
+          <t>-46,8; 47,08</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-69,74; -16,93</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-42,47; 45,0</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-23,79; 159,73</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-57,42; 46,09</t>
         </is>
       </c>
     </row>
@@ -761,47 +833,67 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,48</t>
+          <t>-4,09</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,48</t>
+          <t>-7,05</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-11,46</t>
+          <t>-6,72</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-18,0%</t>
+          <t>-11,45</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-20,9%</t>
+          <t>-6,38</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-33,33%</t>
+          <t>-17,99%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>-19,5%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-46,0%</t>
+          <t>-35,2%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6,51%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-32,41%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-45,97%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-27,44%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 3,78</t>
+          <t>-11,09; 5,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 4,34</t>
+          <t>-12,99; 4,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-13,75; 1,2</t>
+          <t>-14,71; 0,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 8,35</t>
+          <t>-5,85; 8,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,69; -1,94</t>
+          <t>-16,32; 2,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-50,08; 26,16</t>
+          <t>-20,74; -1,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-49,22; 29,44</t>
+          <t>-17,76; 3,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-57,6; 9,01</t>
+          <t>-46,66; 37,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-30,81; 84,92</t>
+          <t>-47,76; 29,43</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-66,53; -9,97</t>
+          <t>-59,32; 5,37</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-33,26; 89,33</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-62,76; 15,82</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-66,18; -6,31</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-58,58; 23,02</t>
         </is>
       </c>
     </row>
@@ -881,47 +993,67 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-6,96</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-11,25%</t>
+          <t>-6,95</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>-7,35</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-16,89%</t>
+          <t>-11,23%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-19,23%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-41,89%</t>
+          <t>-19,61%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-20,47%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4,58%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-41,88%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-39,7%</t>
         </is>
       </c>
     </row>
@@ -934,52 +1066,72 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 3,77</t>
+          <t>-7,08; 3,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 6,06</t>
+          <t>-5,16; 5,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 2,89</t>
+          <t>-7,47; 2,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 2,28</t>
+          <t>-8,02; 1,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,89; -0,78</t>
+          <t>-5,35; 6,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-43,64; 46,37</t>
+          <t>-13,05; -0,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-38,26; 91,44</t>
+          <t>-14,63; 0,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-46,98; 31,45</t>
+          <t>-45,67; 35,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-50,08; 24,01</t>
+          <t>-38,04; 77,03</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-64,93; -7,14</t>
+          <t>-49,7; 22,96</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-51,99; 22,06</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-44,67; 99,08</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-64,78; -5,95</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-63,32; 5,62</t>
         </is>
       </c>
     </row>
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>4,09</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,69</t>
+          <t>7,33</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-4,33</t>
+          <t>9,32</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-9,56%</t>
+          <t>-4,32</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,4%</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,41%</t>
+          <t>-9,58%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>60,39%</t>
+          <t>25,89%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-24,42%</t>
+          <t>31,93%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>69,54%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>76,75%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-24,4%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-2,44%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1226,72 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 4,64</t>
+          <t>-9,16; 4,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 10,8</t>
+          <t>-2,68; 9,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 9,61</t>
+          <t>-0,52; 10,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,01; 11,59</t>
+          <t>1,88; 12,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,04; 2,04</t>
+          <t>2,92; 15,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-39,33; 30,67</t>
+          <t>-12,35; 2,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,48; 84,81</t>
+          <t>-6,97; 6,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,16; 80,55</t>
+          <t>-39,43; 31,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,65; 135,32</t>
+          <t>-14,39; 77,17</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-55,08; 18,82</t>
+          <t>-3,93; 94,08</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>10,84; 154,14</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>17,86; 172,91</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-55,99; 18,6</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-35,53; 51,99</t>
         </is>
       </c>
     </row>
@@ -1121,47 +1313,67 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>14,88</t>
+          <t>13,74</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,27</t>
+          <t>8,25</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,91</t>
+          <t>6,93</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,71</t>
+          <t>7,32</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>6,7</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10,21</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>31,02%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>25,69%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>13,23%</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>23,34%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>11,96%</t>
+          <t>13,12%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>10,68%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>9,16%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>11,94%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>18,66%</t>
         </is>
       </c>
     </row>
@@ -1174,52 +1386,72 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,64; 26,7</t>
+          <t>8,44; 26,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,68; 24,98</t>
+          <t>4,07; 23,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 17,1</t>
+          <t>0,12; 16,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 15,63</t>
+          <t>-0,84; 14,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 17,95</t>
+          <t>0,03; 14,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,82; 52,67</t>
+          <t>-2,38; 16,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,39; 47,95</t>
+          <t>0,21; 18,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,59; 30,13</t>
+          <t>12,96; 51,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 26,83</t>
+          <t>6,25; 43,12</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 35,5</t>
+          <t>-0,0; 28,08</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-1,3; 24,4</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 19,62</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-3,66; 35,0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0,34; 37,95</t>
         </is>
       </c>
     </row>
@@ -1236,52 +1468,72 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>-3,32</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-3,16</t>
+          <t>-3,45</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>-5,29</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-2,09</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>-3,06%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>-0,66%</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-3,24%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>-3,31%</t>
-        </is>
-      </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
+          <t>-3,51%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-3,61%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-5,32%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
           <t>-2,15%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>0,51%</t>
         </is>
       </c>
     </row>
@@ -1294,52 +1546,72 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 0,36</t>
+          <t>-6,69; 0,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 7,47</t>
+          <t>-5,15; 7,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 4,02</t>
+          <t>-7,88; 2,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 1,12</t>
+          <t>-7,96; 0,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 2,26</t>
+          <t>-10,37; -1,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 0,32</t>
+          <t>-6,62; 1,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 8,45</t>
+          <t>-5,83; 5,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 4,42</t>
+          <t>-6,81; 0,73</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 1,16</t>
+          <t>-5,27; 8,06</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 2,35</t>
+          <t>-8,14; 3,23</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-8,25; 0,7</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-10,57; -1,83</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-6,64; 1,95</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-6,01; 6,51</t>
         </is>
       </c>
     </row>
@@ -1361,47 +1633,67 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>2,57</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3,45</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>2,5</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>2,5</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>3,44</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>11,24%</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>13,0%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>6,25%</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>6,45%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>7,43%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>8,78%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>6,89%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>9,56%</t>
         </is>
       </c>
     </row>
@@ -1414,66 +1706,93 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,34; 8,38</t>
+          <t>-0,09; 7,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 8,55</t>
+          <t>0,71; 8,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 6,35</t>
+          <t>-1,43; 6,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 6,3</t>
+          <t>-1,25; 6,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 6,34</t>
+          <t>-1,28; 8,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,9; 25,2</t>
+          <t>-1,78; 7,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,48; 25,87</t>
+          <t>-1,25; 7,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 19,47</t>
+          <t>-0,12; 23,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 19,48</t>
+          <t>1,96; 27,89</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 18,58</t>
+          <t>-3,86; 19,93</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-3,36; 18,94</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-3,17; 22,24</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-4,77; 21,73</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-3,26; 22,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
